--- a/data/trans_orig/P14B34-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P14B34-Clase-trans_orig.xlsx
@@ -1269,19 +1269,19 @@
         <v>6416</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2154</v>
+        <v>2092</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>15110</v>
+        <v>15900</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01474830097396999</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.004951948115614505</v>
+        <v>0.004808502907161688</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03473401240193218</v>
+        <v>0.03655095311516614</v>
       </c>
     </row>
     <row r="5">
@@ -1298,19 +1298,19 @@
         <v>428603</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>419909</v>
+        <v>419119</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>432865</v>
+        <v>432927</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.98525169902603</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9652659875980676</v>
+        <v>0.9634490468848338</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9950480518843855</v>
+        <v>0.9951914970928383</v>
       </c>
     </row>
     <row r="6">
@@ -1360,19 +1360,19 @@
         <v>10385</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>5136</v>
+        <v>5216</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>18080</v>
+        <v>18642</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02479656893023002</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01226257208232451</v>
+        <v>0.01245483703077523</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04317229564209742</v>
+        <v>0.04451405992825055</v>
       </c>
     </row>
     <row r="8">
@@ -1389,19 +1389,19 @@
         <v>408412</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>400717</v>
+        <v>400155</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>413661</v>
+        <v>413581</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.97520343106977</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9568277043579025</v>
+        <v>0.9554859400717496</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9877374279176754</v>
+        <v>0.9875451629692248</v>
       </c>
     </row>
     <row r="9">
@@ -1451,19 +1451,19 @@
         <v>7322</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>3077</v>
+        <v>2146</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>16460</v>
+        <v>15663</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01165217627926374</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.004897201434807403</v>
+        <v>0.003414666963485859</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02619500747620403</v>
+        <v>0.02492653030722512</v>
       </c>
     </row>
     <row r="11">
@@ -1480,19 +1480,19 @@
         <v>621042</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>611904</v>
+        <v>612701</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>625287</v>
+        <v>626218</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9883478237207363</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9738049925237952</v>
+        <v>0.9750734696927749</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9951027985651926</v>
+        <v>0.9965853330365142</v>
       </c>
     </row>
     <row r="12">
@@ -1542,19 +1542,19 @@
         <v>20351</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>12416</v>
+        <v>13043</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>30841</v>
+        <v>30660</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01755907175029658</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01071224370097662</v>
+        <v>0.011253922632733</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02661018267136842</v>
+        <v>0.02645335199571078</v>
       </c>
     </row>
     <row r="14">
@@ -1571,19 +1571,19 @@
         <v>1138658</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1128168</v>
+        <v>1128349</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1146593</v>
+        <v>1145966</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9824409282497034</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9733898173286315</v>
+        <v>0.97354664800429</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9892877562990233</v>
+        <v>0.9887460773672672</v>
       </c>
     </row>
     <row r="15">
@@ -1633,19 +1633,19 @@
         <v>13041</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>6770</v>
+        <v>7318</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>22392</v>
+        <v>21453</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02554042402559277</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01325899738655776</v>
+        <v>0.01433264471511876</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04385435685819696</v>
+        <v>0.04201602618757293</v>
       </c>
     </row>
     <row r="17">
@@ -1662,19 +1662,19 @@
         <v>497555</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>488204</v>
+        <v>489143</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>503826</v>
+        <v>503278</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9744595759744072</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9561456431418034</v>
+        <v>0.9579839738124275</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9867410026134426</v>
+        <v>0.9856673552848816</v>
       </c>
     </row>
     <row r="18">
@@ -1799,19 +1799,19 @@
         <v>57514</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>43819</v>
+        <v>44523</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>74377</v>
+        <v>76854</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01682360093109104</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01281746629827478</v>
+        <v>0.01302355215781987</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02175609915661611</v>
+        <v>0.02248077000105412</v>
       </c>
     </row>
     <row r="23">
@@ -1828,19 +1828,19 @@
         <v>3361154</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3344291</v>
+        <v>3341814</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3374849</v>
+        <v>3374145</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.983176399068909</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9782439008433839</v>
+        <v>0.9775192299989459</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9871825337017253</v>
+        <v>0.9869764478421801</v>
       </c>
     </row>
     <row r="24">
@@ -2010,19 +2010,19 @@
         <v>2792</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>8470</v>
+        <v>7934</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.006506235442620604</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.001749670072862837</v>
+        <v>0.001751804200146069</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01973992225973733</v>
+        <v>0.0184909345391989</v>
       </c>
     </row>
     <row r="5">
@@ -2039,19 +2039,19 @@
         <v>426300</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>420622</v>
+        <v>421158</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>428341</v>
+        <v>428340</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9934937645573794</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9802600777402621</v>
+        <v>0.9815090654608013</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9982503299271371</v>
+        <v>0.9982481957998539</v>
       </c>
     </row>
     <row r="6">
@@ -2101,19 +2101,19 @@
         <v>5199</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>970</v>
+        <v>972</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>13798</v>
+        <v>13053</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01378343933364252</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.002571564855940678</v>
+        <v>0.002577418035392609</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03657764726532338</v>
+        <v>0.0346023929777408</v>
       </c>
     </row>
     <row r="8">
@@ -2130,19 +2130,19 @@
         <v>372028</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>363429</v>
+        <v>364174</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>376257</v>
+        <v>376255</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9862165606663574</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9634223527346766</v>
+        <v>0.9653976070222591</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9974284351440593</v>
+        <v>0.9974225819646073</v>
       </c>
     </row>
     <row r="9">
@@ -2192,19 +2192,19 @@
         <v>7648</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>3755</v>
+        <v>3622</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>15334</v>
+        <v>15117</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01465469884058619</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.007193765015681118</v>
+        <v>0.006939909678506237</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02937941599794086</v>
+        <v>0.02896494151679804</v>
       </c>
     </row>
     <row r="11">
@@ -2221,19 +2221,19 @@
         <v>514266</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>506580</v>
+        <v>506797</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>518159</v>
+        <v>518292</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9853453011594138</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9706205840020594</v>
+        <v>0.971035058483202</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.992806234984319</v>
+        <v>0.9930600903214938</v>
       </c>
     </row>
     <row r="12">
@@ -2283,19 +2283,19 @@
         <v>8666</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>4370</v>
+        <v>4494</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>17489</v>
+        <v>16862</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.007538298414944396</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.003800912848801269</v>
+        <v>0.003909400084701553</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01521255017241392</v>
+        <v>0.01466715673255288</v>
       </c>
     </row>
     <row r="14">
@@ -2312,19 +2312,19 @@
         <v>1140972</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1132149</v>
+        <v>1132776</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1145268</v>
+        <v>1145144</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9924617015850556</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.984787449827586</v>
+        <v>0.9853328432674471</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9961990871511988</v>
+        <v>0.9960905999152985</v>
       </c>
     </row>
     <row r="15">
@@ -2374,19 +2374,19 @@
         <v>13428</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>7649</v>
+        <v>7946</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>21621</v>
+        <v>21957</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02163278804769536</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01232357664702725</v>
+        <v>0.01280166295746068</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03483287158614989</v>
+        <v>0.03537367094644166</v>
       </c>
     </row>
     <row r="17">
@@ -2403,19 +2403,19 @@
         <v>607278</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>599085</v>
+        <v>598749</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>613057</v>
+        <v>612760</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9783672119523046</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9651671284138504</v>
+        <v>0.9646263290535584</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9876764233529729</v>
+        <v>0.9871983370425393</v>
       </c>
     </row>
     <row r="18">
@@ -2540,19 +2540,19 @@
         <v>37734</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>26343</v>
+        <v>27264</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>51615</v>
+        <v>51014</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01114493788993955</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.007780648868597841</v>
+        <v>0.008052546085423964</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01524481847056082</v>
+        <v>0.01506744266130334</v>
       </c>
     </row>
     <row r="23">
@@ -2569,19 +2569,19 @@
         <v>3347988</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3334107</v>
+        <v>3334708</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3359379</v>
+        <v>3358458</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9888550621100605</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9847551815294392</v>
+        <v>0.9849325573386967</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9922193511314021</v>
+        <v>0.9919474539145761</v>
       </c>
     </row>
     <row r="24">
@@ -2751,19 +2751,19 @@
         <v>5286</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2315</v>
+        <v>2144</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>10769</v>
+        <v>11446</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.009707336338490625</v>
+        <v>0.009707336338490623</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.004250608093326839</v>
+        <v>0.003936766157558409</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01977699149318172</v>
+        <v>0.02101977934046288</v>
       </c>
     </row>
     <row r="5">
@@ -2780,19 +2780,19 @@
         <v>539225</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>533742</v>
+        <v>533065</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>542196</v>
+        <v>542367</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.9902926636615096</v>
+        <v>0.9902926636615094</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9802230085068183</v>
+        <v>0.9789802206595372</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9957493919066732</v>
+        <v>0.9960632338424417</v>
       </c>
     </row>
     <row r="6">
@@ -2845,16 +2845,16 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>3878</v>
+        <v>3949</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.002226068891889842</v>
+        <v>0.002226068891889841</v>
       </c>
       <c r="H7" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.00804639680143753</v>
+        <v>0.008193297019681091</v>
       </c>
     </row>
     <row r="8">
@@ -2871,7 +2871,7 @@
         <v>480929</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>478124</v>
+        <v>478053</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>482002</v>
@@ -2880,7 +2880,7 @@
         <v>0.9977739311081102</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9919536031985625</v>
+        <v>0.991806702980319</v>
       </c>
       <c r="I8" s="6" t="n">
         <v>1</v>
@@ -2933,19 +2933,19 @@
         <v>5278</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2046</v>
+        <v>2316</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>12237</v>
+        <v>11827</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01123239025723193</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.004353922256748985</v>
+        <v>0.004929175090169182</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02604471592978793</v>
+        <v>0.02517087078718508</v>
       </c>
     </row>
     <row r="11">
@@ -2962,19 +2962,19 @@
         <v>464578</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>457619</v>
+        <v>458029</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>467810</v>
+        <v>467540</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9887676097427681</v>
+        <v>0.9887676097427679</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9739552840702123</v>
+        <v>0.9748291292128152</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.995646077743251</v>
+        <v>0.9950708249098307</v>
       </c>
     </row>
     <row r="12">
@@ -3024,19 +3024,19 @@
         <v>13850</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>8742</v>
+        <v>8468</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>20829</v>
+        <v>20259</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.01233278809903462</v>
+        <v>0.01233278809903461</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.007784719147343419</v>
+        <v>0.007540362012376674</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0185471334729072</v>
+        <v>0.01803971307523544</v>
       </c>
     </row>
     <row r="14">
@@ -3053,19 +3053,19 @@
         <v>1109155</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1102176</v>
+        <v>1102746</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1114263</v>
+        <v>1114537</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9876672119009654</v>
+        <v>0.9876672119009652</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9814528665270912</v>
+        <v>0.9819602869247644</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9922152808526565</v>
+        <v>0.9924596379876234</v>
       </c>
     </row>
     <row r="15">
@@ -3115,19 +3115,19 @@
         <v>8752</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>4868</v>
+        <v>5010</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>14677</v>
+        <v>13912</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01550390167880841</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.008623020951566081</v>
+        <v>0.008874506594261183</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02599904060317851</v>
+        <v>0.02464505233363032</v>
       </c>
     </row>
     <row r="17">
@@ -3144,19 +3144,19 @@
         <v>555751</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>549826</v>
+        <v>550591</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>559635</v>
+        <v>559493</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9844960983211914</v>
+        <v>0.9844960983211916</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9740009593968219</v>
+        <v>0.9753549476663695</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9913769790484338</v>
+        <v>0.9911254934057385</v>
       </c>
     </row>
     <row r="18">
@@ -3281,19 +3281,19 @@
         <v>34238</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>25530</v>
+        <v>25847</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>45934</v>
+        <v>45873</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01000791015121742</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.007462576141796661</v>
+        <v>0.007555283562089181</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01342678826597876</v>
+        <v>0.01340883970606704</v>
       </c>
     </row>
     <row r="23">
@@ -3310,19 +3310,19 @@
         <v>3386868</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3375172</v>
+        <v>3375233</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3395576</v>
+        <v>3395259</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9899920898487826</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9865732117340217</v>
+        <v>0.9865911602939327</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9925374238582036</v>
+        <v>0.9924447164379107</v>
       </c>
     </row>
     <row r="24">
